--- a/Iris descriptives.xlsx
+++ b/Iris descriptives.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Iris Dataset Descriptive Statistics</t>
   </si>
@@ -57,6 +57,253 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Sepal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(cm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Sepal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(cm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Petal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(cm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Petal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(cm)</t>
+    </r>
+  </si>
+  <si>
+    <t>iris dataset info</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Non-Null Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dtype  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepal length </t>
+  </si>
+  <si>
+    <t>150 non-null</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepal width </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petal length </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petal width </t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <r>
@@ -96,7 +343,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,11 +367,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -270,14 +531,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +547,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -477,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -529,6 +796,65 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -632,28 +958,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,43 +979,46 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,74 +1030,80 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -793,6 +1119,29 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,7 +1194,95 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="16">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="double">
+          <color theme="6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -964,15 +1401,26 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="TableStylePreset6_Accent3" pivot="0" count="9" xr9:uid="{AF8422CA-C359-4D57-98FC-EC8EA64601C9}">
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="totalRow" dxfId="6"/>
+      <tableStyleElement type="firstColumn" dxfId="5"/>
+      <tableStyleElement type="lastColumn" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="0"/>
+    </tableStyle>
     <tableStyle name="TableStylePreset11_Accent3" pivot="0" count="7" xr9:uid="{B2771B32-0E27-4620-AB05-739244E95BF4}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="firstColumn" dxfId="12"/>
+      <tableStyleElement type="lastColumn" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -997,6 +1445,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B16:D22" totalsRowCount="1">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Variables" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Non-Null Count"/>
+    <tableColumn id="3" name="Dtype  " totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStylePreset6_Accent3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F16" totalsRowShown="0">
   <autoFilter ref="A2:F16"/>
   <tableColumns count="6">
@@ -1296,16 +1755,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B15" sqref="B15:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.7894736842105" customWidth="1"/>
-    <col min="2" max="5" width="12.7894736842105"/>
+    <col min="2" max="2" width="18.2631578947368" customWidth="1"/>
+    <col min="3" max="3" width="15.2631578947368" customWidth="1"/>
+    <col min="4" max="4" width="15.5789473684211" customWidth="1"/>
+    <col min="5" max="5" width="15.0526315789474" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1470,14 +1932,114 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="12" ht="15.15"/>
+    <row r="13" ht="15.15" spans="2:5">
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <f>SUBTOTAL(103,Table3[Dtype  ])</f>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1495,22 +2057,22 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
